--- a/premise/data/additional_inventories/lci-batteries-NMC111-811-NCA-LFP.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-NMC111-811-NCA-LFP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B6148-AAF7-5D4D-9D1B-5CB5ED02CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEADE098-AD40-9347-8520-481F83B8D80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="860" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="296">
   <si>
     <t>Activity</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>battery management system, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>battery cell, Li-ion, LFP</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N774"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="F570" sqref="F570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9802,7 +9805,7 @@
         <v>6</v>
       </c>
       <c r="B571" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.2">
@@ -9855,7 +9858,7 @@
         <v>281</v>
       </c>
       <c r="B575" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C575">
         <v>1</v>

--- a/premise/data/additional_inventories/lci-batteries-NMC111-811-NCA-LFP.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-NMC111-811-NCA-LFP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FF463-7C3E-9242-89A6-EE7B8048DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFED30B6-15BA-2942-8BB9-8FF1FE8B34AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$854</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$866</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="307">
   <si>
     <t>Activity</t>
   </si>
@@ -960,6 +960,15 @@
   </si>
   <si>
     <t>battery cell, Li-ion, NCA</t>
+  </si>
+  <si>
+    <t>Source: Eleonora Crenna, Marcel Gauch, Rolf Widmer, Patrick Wäger, Roland Hischier, Towards more flexibility and transparency in life cycle inventories for Lithium-ion batteries, Resources, Conservation and Recycling, Volume 170, 2021, https://doi.org/10.1016/j.resconrec.2021.105619.</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LFP, rechargeable, prismatic</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N854"/>
+  <dimension ref="A1:N866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="A634" sqref="A634"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10657,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
@@ -10665,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="B632" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
@@ -10689,7 +10698,7 @@
         <v>6</v>
       </c>
       <c r="B635" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
@@ -10726,11 +10735,13 @@
       </c>
     </row>
     <row r="639" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A639" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B639" t="s">
-        <v>294</v>
+      <c r="A639" s="7" t="str">
+        <f>B631</f>
+        <v>market for battery, Li-ion, LFP, rechargeable, prismatic</v>
+      </c>
+      <c r="B639" t="str">
+        <f>B635</f>
+        <v>battery, Li-ion, LFP, rechargeable, prismatic</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -10745,18 +10756,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A640" t="s">
-        <v>57</v>
+    <row r="640" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A640" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B640" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="C640">
-        <v>9.5999999999999992E-3</v>
+        <v>0.73</v>
       </c>
       <c r="D640" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E640" t="s">
         <v>4</v>
@@ -10765,18 +10776,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
-        <v>52</v>
+    <row r="641" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A641" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="B641" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="C641">
-        <v>6.2300000000000001E-2</v>
+        <v>0.27</v>
       </c>
       <c r="D641" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E641" t="s">
         <v>4</v>
@@ -10785,883 +10796,889 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
-        <v>59</v>
-      </c>
-      <c r="B642" t="s">
-        <v>60</v>
-      </c>
-      <c r="C642">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="D642" t="s">
-        <v>53</v>
-      </c>
-      <c r="E642" t="s">
-        <v>4</v>
-      </c>
-      <c r="F642" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A643" t="s">
-        <v>296</v>
-      </c>
-      <c r="B643" t="s">
-        <v>56</v>
-      </c>
-      <c r="C643">
-        <v>0.31</v>
-      </c>
-      <c r="D643" t="s">
-        <v>53</v>
-      </c>
-      <c r="E643" t="s">
-        <v>4</v>
-      </c>
-      <c r="F643" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B644" t="s">
-        <v>62</v>
-      </c>
-      <c r="C644">
-        <v>0.73680000000000001</v>
-      </c>
-      <c r="D644" t="s">
-        <v>53</v>
-      </c>
-      <c r="E644" t="s">
-        <v>4</v>
-      </c>
-      <c r="F644" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="645" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A645" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>3</v>
       </c>
       <c r="B645" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>5</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>6</v>
+      </c>
+      <c r="B647" t="s">
         <v>294</v>
       </c>
-      <c r="C645">
-        <v>1</v>
-      </c>
-      <c r="D645" t="s">
-        <v>8</v>
-      </c>
-      <c r="E645" t="s">
-        <v>4</v>
-      </c>
-      <c r="F645" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="647" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A647" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B647" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B648" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A649" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>11</v>
+      </c>
+      <c r="B650" t="s">
+        <v>6</v>
+      </c>
+      <c r="C650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" t="s">
+        <v>7</v>
+      </c>
+      <c r="E650" t="s">
         <v>3</v>
       </c>
-      <c r="B649" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A650" t="s">
-        <v>5</v>
-      </c>
-      <c r="B650">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A651" t="s">
-        <v>6</v>
+      <c r="F650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A651" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B651" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C651">
+        <v>1</v>
+      </c>
+      <c r="D651" t="s">
+        <v>8</v>
+      </c>
+      <c r="E651" t="s">
+        <v>4</v>
+      </c>
+      <c r="F651" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B652" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="653" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A653" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="C652">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D652" t="s">
+        <v>53</v>
+      </c>
+      <c r="E652" t="s">
+        <v>4</v>
+      </c>
+      <c r="F652" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>52</v>
+      </c>
+      <c r="B653" t="s">
+        <v>54</v>
+      </c>
+      <c r="C653">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="D653" t="s">
+        <v>53</v>
+      </c>
+      <c r="E653" t="s">
+        <v>4</v>
+      </c>
+      <c r="F653" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B654" t="s">
-        <v>6</v>
-      </c>
-      <c r="C654" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C654">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="D654" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E654" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="F654" t="s">
-        <v>131</v>
-      </c>
-      <c r="G654" t="s">
-        <v>3</v>
-      </c>
-      <c r="H654" t="s">
-        <v>13</v>
-      </c>
-      <c r="I654" t="s">
-        <v>205</v>
-      </c>
-      <c r="J654" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A655" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>296</v>
+      </c>
+      <c r="B655" t="s">
+        <v>56</v>
+      </c>
+      <c r="C655">
+        <v>0.31</v>
+      </c>
+      <c r="D655" t="s">
+        <v>53</v>
+      </c>
+      <c r="E655" t="s">
+        <v>4</v>
+      </c>
+      <c r="F655" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>61</v>
+      </c>
+      <c r="B656" t="s">
+        <v>62</v>
+      </c>
+      <c r="C656">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="D656" t="s">
+        <v>53</v>
+      </c>
+      <c r="E656" t="s">
+        <v>4</v>
+      </c>
+      <c r="F656" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A657" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B657" t="s">
         <v>294</v>
       </c>
-      <c r="C655">
-        <v>1</v>
-      </c>
-      <c r="D655" t="s">
-        <v>8</v>
-      </c>
-      <c r="E655" t="s">
-        <v>206</v>
-      </c>
-      <c r="G655" t="s">
-        <v>4</v>
-      </c>
-      <c r="H655" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A656" t="s">
-        <v>207</v>
-      </c>
-      <c r="C656">
-        <v>0.38915579958819491</v>
-      </c>
-      <c r="D656" t="s">
-        <v>8</v>
-      </c>
-      <c r="E656" t="s">
-        <v>206</v>
-      </c>
-      <c r="G656" t="s">
-        <v>208</v>
-      </c>
-      <c r="H656" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A657" t="s">
-        <v>209</v>
-      </c>
       <c r="C657">
-        <v>0.13150308853809195</v>
+        <v>1</v>
       </c>
       <c r="D657" t="s">
         <v>8</v>
       </c>
       <c r="E657" t="s">
-        <v>206</v>
-      </c>
-      <c r="G657" t="s">
-        <v>208</v>
-      </c>
-      <c r="H657" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A658" t="s">
-        <v>210</v>
-      </c>
-      <c r="C658">
-        <v>5.6005490734385717E-2</v>
-      </c>
-      <c r="D658" t="s">
-        <v>8</v>
-      </c>
-      <c r="E658" t="s">
-        <v>206</v>
-      </c>
-      <c r="G658" t="s">
-        <v>208</v>
-      </c>
-      <c r="H658" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A659" t="s">
-        <v>211</v>
-      </c>
-      <c r="C659">
-        <v>0.12916952642415921</v>
-      </c>
-      <c r="D659" t="s">
-        <v>8</v>
-      </c>
-      <c r="E659" t="s">
-        <v>206</v>
-      </c>
-      <c r="G659" t="s">
-        <v>208</v>
-      </c>
-      <c r="H659" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="F657" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>212</v>
-      </c>
-      <c r="C660">
-        <v>0.21153054221002057</v>
-      </c>
-      <c r="D660" t="s">
-        <v>8</v>
-      </c>
-      <c r="E660" t="s">
-        <v>206</v>
-      </c>
-      <c r="G660" t="s">
-        <v>208</v>
-      </c>
-      <c r="H660" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="B660" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B661" t="s">
-        <v>119</v>
-      </c>
-      <c r="C661">
-        <v>5.1338366506520246E-2</v>
-      </c>
-      <c r="D661" t="s">
-        <v>8</v>
-      </c>
-      <c r="E661" t="s">
-        <v>206</v>
-      </c>
-      <c r="G661" t="s">
-        <v>4</v>
-      </c>
-      <c r="H661" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>213</v>
-      </c>
-      <c r="C662">
-        <v>3.1297185998627318E-2</v>
-      </c>
-      <c r="D662" t="s">
-        <v>8</v>
-      </c>
-      <c r="E662" t="s">
-        <v>206</v>
-      </c>
-      <c r="G662" t="s">
-        <v>4</v>
-      </c>
-      <c r="H662" t="s">
-        <v>16</v>
-      </c>
-      <c r="J662" t="s">
-        <v>214</v>
+        <v>5</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="B663" t="s">
-        <v>216</v>
-      </c>
-      <c r="C663" s="5">
-        <v>4.4680851063829783</v>
-      </c>
-      <c r="D663" t="s">
-        <v>8</v>
-      </c>
-      <c r="E663" t="s">
-        <v>217</v>
-      </c>
-      <c r="G663" t="s">
-        <v>27</v>
-      </c>
-      <c r="H663" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B664" t="s">
-        <v>47</v>
-      </c>
-      <c r="C664">
-        <v>4</v>
-      </c>
-      <c r="D664" t="s">
-        <v>46</v>
-      </c>
-      <c r="E664" t="s">
-        <v>217</v>
-      </c>
-      <c r="G664" t="s">
-        <v>4</v>
-      </c>
-      <c r="H664" t="s">
-        <v>16</v>
-      </c>
-      <c r="J664" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A665" t="s">
-        <v>112</v>
-      </c>
-      <c r="B665" t="s">
-        <v>114</v>
-      </c>
-      <c r="C665" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="D665" t="s">
-        <v>113</v>
-      </c>
-      <c r="E665" t="s">
-        <v>217</v>
-      </c>
-      <c r="G665" t="s">
-        <v>27</v>
-      </c>
-      <c r="H665" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="668" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A668" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B668" s="2" t="s">
-        <v>209</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>11</v>
+      </c>
+      <c r="B666" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" t="s">
+        <v>12</v>
+      </c>
+      <c r="D666" t="s">
+        <v>7</v>
+      </c>
+      <c r="E666" t="s">
+        <v>204</v>
+      </c>
+      <c r="F666" t="s">
+        <v>131</v>
+      </c>
+      <c r="G666" t="s">
+        <v>3</v>
+      </c>
+      <c r="H666" t="s">
+        <v>13</v>
+      </c>
+      <c r="I666" t="s">
+        <v>205</v>
+      </c>
+      <c r="J666" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A667" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B667" t="s">
+        <v>294</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+      <c r="D667" t="s">
+        <v>8</v>
+      </c>
+      <c r="E667" t="s">
+        <v>206</v>
+      </c>
+      <c r="G667" t="s">
+        <v>4</v>
+      </c>
+      <c r="H667" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>207</v>
+      </c>
+      <c r="C668">
+        <v>0.38915579958819491</v>
+      </c>
+      <c r="D668" t="s">
+        <v>8</v>
+      </c>
+      <c r="E668" t="s">
+        <v>206</v>
+      </c>
+      <c r="G668" t="s">
+        <v>208</v>
+      </c>
+      <c r="H668" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1</v>
-      </c>
-      <c r="B669" t="s">
-        <v>2</v>
+        <v>209</v>
+      </c>
+      <c r="C669">
+        <v>0.13150308853809195</v>
+      </c>
+      <c r="D669" t="s">
+        <v>8</v>
+      </c>
+      <c r="E669" t="s">
+        <v>206</v>
+      </c>
+      <c r="G669" t="s">
+        <v>208</v>
+      </c>
+      <c r="H669" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>3</v>
-      </c>
-      <c r="B670" t="s">
+        <v>210</v>
+      </c>
+      <c r="C670">
+        <v>5.6005490734385717E-2</v>
+      </c>
+      <c r="D670" t="s">
+        <v>8</v>
+      </c>
+      <c r="E670" t="s">
+        <v>206</v>
+      </c>
+      <c r="G670" t="s">
         <v>208</v>
+      </c>
+      <c r="H670" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>5</v>
-      </c>
-      <c r="B671">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="C671">
+        <v>0.12916952642415921</v>
+      </c>
+      <c r="D671" t="s">
+        <v>8</v>
+      </c>
+      <c r="E671" t="s">
+        <v>206</v>
+      </c>
+      <c r="G671" t="s">
+        <v>208</v>
+      </c>
+      <c r="H671" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
+        <v>212</v>
+      </c>
+      <c r="C672">
+        <v>0.21153054221002057</v>
+      </c>
+      <c r="D672" t="s">
+        <v>8</v>
+      </c>
+      <c r="E672" t="s">
+        <v>206</v>
+      </c>
+      <c r="G672" t="s">
+        <v>208</v>
+      </c>
+      <c r="H672" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>119</v>
+      </c>
+      <c r="B673" t="s">
+        <v>119</v>
+      </c>
+      <c r="C673">
+        <v>5.1338366506520246E-2</v>
+      </c>
+      <c r="D673" t="s">
+        <v>8</v>
+      </c>
+      <c r="E673" t="s">
+        <v>206</v>
+      </c>
+      <c r="G673" t="s">
+        <v>4</v>
+      </c>
+      <c r="H673" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>213</v>
+      </c>
+      <c r="C674">
+        <v>3.1297185998627318E-2</v>
+      </c>
+      <c r="D674" t="s">
+        <v>8</v>
+      </c>
+      <c r="E674" t="s">
+        <v>206</v>
+      </c>
+      <c r="G674" t="s">
+        <v>4</v>
+      </c>
+      <c r="H674" t="s">
+        <v>16</v>
+      </c>
+      <c r="J674" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>215</v>
+      </c>
+      <c r="B675" t="s">
+        <v>216</v>
+      </c>
+      <c r="C675" s="5">
+        <v>4.4680851063829783</v>
+      </c>
+      <c r="D675" t="s">
+        <v>8</v>
+      </c>
+      <c r="E675" t="s">
+        <v>217</v>
+      </c>
+      <c r="G675" t="s">
+        <v>27</v>
+      </c>
+      <c r="H675" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>45</v>
+      </c>
+      <c r="B676" t="s">
+        <v>47</v>
+      </c>
+      <c r="C676">
+        <v>4</v>
+      </c>
+      <c r="D676" t="s">
+        <v>46</v>
+      </c>
+      <c r="E676" t="s">
+        <v>217</v>
+      </c>
+      <c r="G676" t="s">
+        <v>4</v>
+      </c>
+      <c r="H676" t="s">
+        <v>16</v>
+      </c>
+      <c r="J676" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>112</v>
+      </c>
+      <c r="B677" t="s">
+        <v>114</v>
+      </c>
+      <c r="C677" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="D677" t="s">
+        <v>113</v>
+      </c>
+      <c r="E677" t="s">
+        <v>217</v>
+      </c>
+      <c r="G677" t="s">
+        <v>27</v>
+      </c>
+      <c r="H677" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A680" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>1</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>3</v>
+      </c>
+      <c r="B682" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>5</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
         <v>6</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B684" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A673" t="s">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
         <v>7</v>
       </c>
-      <c r="B673" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A674" t="s">
+      <c r="B685" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
         <v>219</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B686" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A675" s="2" t="s">
+    <row r="687" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A687" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A676" t="s">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
         <v>11</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B688" t="s">
         <v>12</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C688" t="s">
         <v>204</v>
       </c>
-      <c r="D676" t="s">
+      <c r="D688" t="s">
         <v>3</v>
       </c>
-      <c r="E676" t="s">
+      <c r="E688" t="s">
         <v>7</v>
       </c>
-      <c r="F676" t="s">
+      <c r="F688" t="s">
         <v>13</v>
       </c>
-      <c r="G676" t="s">
+      <c r="G688" t="s">
         <v>6</v>
       </c>
-      <c r="H676" t="s">
+      <c r="H688" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A677" t="s">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
         <v>209</v>
       </c>
-      <c r="B677">
-        <v>1</v>
-      </c>
-      <c r="C677" t="s">
+      <c r="B689">
+        <v>1</v>
+      </c>
+      <c r="C689" t="s">
         <v>221</v>
       </c>
-      <c r="D677" t="s">
+      <c r="D689" t="s">
         <v>208</v>
       </c>
-      <c r="E677" t="s">
-        <v>8</v>
-      </c>
-      <c r="F677" t="s">
+      <c r="E689" t="s">
+        <v>8</v>
+      </c>
+      <c r="F689" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A678" t="s">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
         <v>115</v>
       </c>
-      <c r="B678">
+      <c r="B690">
         <v>0.9</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C690" t="s">
         <v>222</v>
       </c>
-      <c r="D678" t="s">
-        <v>4</v>
-      </c>
-      <c r="E678" t="s">
-        <v>8</v>
-      </c>
-      <c r="F678" t="s">
-        <v>16</v>
-      </c>
-      <c r="G678" t="s">
+      <c r="D690" t="s">
+        <v>4</v>
+      </c>
+      <c r="E690" t="s">
+        <v>8</v>
+      </c>
+      <c r="F690" t="s">
+        <v>16</v>
+      </c>
+      <c r="G690" t="s">
         <v>115</v>
       </c>
-      <c r="H678">
+      <c r="H690">
         <v>0.86185933408155613</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A679" t="s">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
         <v>125</v>
       </c>
-      <c r="B679">
+      <c r="B691">
         <v>0.05</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C691" t="s">
         <v>222</v>
       </c>
-      <c r="D679" t="s">
-        <v>4</v>
-      </c>
-      <c r="E679" t="s">
-        <v>8</v>
-      </c>
-      <c r="F679" t="s">
-        <v>16</v>
-      </c>
-      <c r="G679" t="s">
+      <c r="D691" t="s">
+        <v>4</v>
+      </c>
+      <c r="E691" t="s">
+        <v>8</v>
+      </c>
+      <c r="F691" t="s">
+        <v>16</v>
+      </c>
+      <c r="G691" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A680" t="s">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
         <v>155</v>
       </c>
-      <c r="B680">
+      <c r="B692">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C692" t="s">
         <v>222</v>
       </c>
-      <c r="D680" t="s">
-        <v>4</v>
-      </c>
-      <c r="E680" t="s">
-        <v>8</v>
-      </c>
-      <c r="F680" t="s">
-        <v>16</v>
-      </c>
-      <c r="G680" t="s">
+      <c r="D692" t="s">
+        <v>4</v>
+      </c>
+      <c r="E692" t="s">
+        <v>8</v>
+      </c>
+      <c r="F692" t="s">
+        <v>16</v>
+      </c>
+      <c r="G692" t="s">
         <v>156</v>
       </c>
-      <c r="H680">
+      <c r="H692">
         <v>3.3516751880949401E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A681" t="s">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
         <v>223</v>
       </c>
-      <c r="B681">
+      <c r="B693">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C693" t="s">
         <v>224</v>
       </c>
-      <c r="D681" t="s">
+      <c r="D693" t="s">
         <v>96</v>
       </c>
-      <c r="E681" t="s">
-        <v>8</v>
-      </c>
-      <c r="F681" t="s">
-        <v>16</v>
-      </c>
-      <c r="G681" t="s">
+      <c r="E693" t="s">
+        <v>8</v>
+      </c>
+      <c r="F693" t="s">
+        <v>16</v>
+      </c>
+      <c r="G693" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A683" s="2" t="s">
+    <row r="695" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A695" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B695" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A684" t="s">
-        <v>1</v>
-      </c>
-      <c r="B684" t="s">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1</v>
+      </c>
+      <c r="B696" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A685" t="s">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
         <v>3</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B697" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A686" t="s">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
         <v>5</v>
       </c>
-      <c r="B686">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A687" t="s">
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
         <v>6</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B699" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A688" t="s">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
         <v>7</v>
       </c>
-      <c r="B688" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A689" t="s">
+      <c r="B700" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
         <v>219</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B701" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A690" s="2" t="s">
+    <row r="702" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A702" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A691" t="s">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
         <v>11</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B703" t="s">
         <v>12</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C703" t="s">
         <v>204</v>
       </c>
-      <c r="D691" t="s">
+      <c r="D703" t="s">
         <v>3</v>
       </c>
-      <c r="E691" t="s">
+      <c r="E703" t="s">
         <v>7</v>
       </c>
-      <c r="F691" t="s">
+      <c r="F703" t="s">
         <v>13</v>
       </c>
-      <c r="G691" t="s">
+      <c r="G703" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A692" t="s">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
         <v>210</v>
       </c>
-      <c r="B692">
-        <v>1</v>
-      </c>
-      <c r="C692" t="s">
+      <c r="B704">
+        <v>1</v>
+      </c>
+      <c r="C704" t="s">
         <v>221</v>
       </c>
-      <c r="D692" t="s">
+      <c r="D704" t="s">
         <v>208</v>
       </c>
-      <c r="E692" t="s">
-        <v>8</v>
-      </c>
-      <c r="F692" t="s">
+      <c r="E704" t="s">
+        <v>8</v>
+      </c>
+      <c r="F704" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A693" t="s">
-        <v>226</v>
-      </c>
-      <c r="B693">
-        <v>1</v>
-      </c>
-      <c r="C693" t="s">
-        <v>222</v>
-      </c>
-      <c r="D693" t="s">
-        <v>227</v>
-      </c>
-      <c r="E693" t="s">
-        <v>8</v>
-      </c>
-      <c r="F693" t="s">
-        <v>16</v>
-      </c>
-      <c r="G693" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A694" t="s">
-        <v>39</v>
-      </c>
-      <c r="B694">
-        <v>1</v>
-      </c>
-      <c r="C694" t="s">
-        <v>222</v>
-      </c>
-      <c r="D694" t="s">
-        <v>4</v>
-      </c>
-      <c r="E694" t="s">
-        <v>8</v>
-      </c>
-      <c r="F694" t="s">
-        <v>16</v>
-      </c>
-      <c r="G694" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="696" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A696" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B696" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A697" t="s">
-        <v>1</v>
-      </c>
-      <c r="B697" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A698" t="s">
-        <v>3</v>
-      </c>
-      <c r="B698" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A699" t="s">
-        <v>5</v>
-      </c>
-      <c r="B699">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A700" t="s">
-        <v>6</v>
-      </c>
-      <c r="B700" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A701" t="s">
-        <v>7</v>
-      </c>
-      <c r="B701" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A702" t="s">
-        <v>219</v>
-      </c>
-      <c r="B702" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="703" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A703" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A704" t="s">
-        <v>11</v>
-      </c>
-      <c r="B704" t="s">
-        <v>12</v>
-      </c>
-      <c r="C704" t="s">
-        <v>204</v>
-      </c>
-      <c r="D704" t="s">
-        <v>3</v>
-      </c>
-      <c r="E704" t="s">
-        <v>7</v>
-      </c>
-      <c r="F704" t="s">
-        <v>13</v>
-      </c>
-      <c r="G704" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B705">
         <v>1</v>
       </c>
       <c r="C705" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D705" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E705" t="s">
         <v>8</v>
       </c>
       <c r="F705" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G705" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="B706">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="C706" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D706" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="E706" t="s">
         <v>8</v>
@@ -11669,186 +11686,186 @@
       <c r="F706" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A707" t="s">
-        <v>129</v>
-      </c>
-      <c r="B707">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C707" t="s">
-        <v>222</v>
-      </c>
-      <c r="D707" t="s">
-        <v>4</v>
-      </c>
-      <c r="E707" t="s">
-        <v>8</v>
-      </c>
-      <c r="F707" t="s">
-        <v>16</v>
-      </c>
-      <c r="G707" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A708" t="s">
-        <v>125</v>
-      </c>
-      <c r="B708">
-        <v>0.05</v>
-      </c>
-      <c r="C708" t="s">
-        <v>222</v>
-      </c>
-      <c r="D708" t="s">
-        <v>4</v>
-      </c>
-      <c r="E708" t="s">
-        <v>8</v>
-      </c>
-      <c r="F708" t="s">
-        <v>16</v>
-      </c>
-      <c r="G708" t="s">
-        <v>126</v>
+      <c r="G706" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A708" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>127</v>
-      </c>
-      <c r="B709">
-        <v>0.08</v>
-      </c>
-      <c r="C709" t="s">
-        <v>222</v>
-      </c>
-      <c r="D709" t="s">
-        <v>4</v>
-      </c>
-      <c r="E709" t="s">
-        <v>8</v>
-      </c>
-      <c r="F709" t="s">
-        <v>16</v>
-      </c>
-      <c r="G709" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="711" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A711" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B711" s="2" t="s">
-        <v>212</v>
+        <v>1</v>
+      </c>
+      <c r="B709" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>3</v>
+      </c>
+      <c r="B710" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>5</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B713" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>5</v>
-      </c>
-      <c r="B714">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A715" t="s">
-        <v>6</v>
-      </c>
-      <c r="B715" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="B714" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A715" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
+        <v>11</v>
+      </c>
+      <c r="B716" t="s">
+        <v>12</v>
+      </c>
+      <c r="C716" t="s">
+        <v>204</v>
+      </c>
+      <c r="D716" t="s">
+        <v>3</v>
+      </c>
+      <c r="E716" t="s">
         <v>7</v>
       </c>
-      <c r="B716" t="s">
-        <v>8</v>
+      <c r="F716" t="s">
+        <v>13</v>
+      </c>
+      <c r="G716" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>219</v>
-      </c>
-      <c r="B717" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="718" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A718" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+      <c r="C717" t="s">
+        <v>221</v>
+      </c>
+      <c r="D717" t="s">
+        <v>208</v>
+      </c>
+      <c r="E717" t="s">
+        <v>8</v>
+      </c>
+      <c r="F717" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>229</v>
+      </c>
+      <c r="B718">
+        <v>0.87</v>
+      </c>
+      <c r="C718" t="s">
+        <v>221</v>
+      </c>
+      <c r="D718" t="s">
+        <v>208</v>
+      </c>
+      <c r="E718" t="s">
+        <v>8</v>
+      </c>
+      <c r="F718" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>11</v>
-      </c>
-      <c r="B719" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="B719">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C719" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D719" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E719" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F719" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G719" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C720" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D720" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="E720" t="s">
         <v>8</v>
       </c>
       <c r="F720" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G720" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B721">
-        <v>0.89400000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="C721" t="s">
         <v>222</v>
@@ -11863,142 +11880,142 @@
         <v>16</v>
       </c>
       <c r="G721" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A722" t="s">
-        <v>166</v>
-      </c>
-      <c r="B722">
-        <v>0.106</v>
-      </c>
-      <c r="C722" t="s">
-        <v>222</v>
-      </c>
-      <c r="D722" t="s">
-        <v>4</v>
-      </c>
-      <c r="E722" t="s">
-        <v>8</v>
-      </c>
-      <c r="F722" t="s">
-        <v>16</v>
-      </c>
-      <c r="G722" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A724" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A723" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B724" s="2" t="s">
-        <v>230</v>
+      <c r="B723" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B725" t="s">
-        <v>2</v>
+        <v>208</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>3</v>
-      </c>
-      <c r="B726" t="s">
-        <v>208</v>
+        <v>5</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>5</v>
-      </c>
-      <c r="B727">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B727" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B728" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
+        <v>219</v>
+      </c>
+      <c r="B729" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A730" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>11</v>
+      </c>
+      <c r="B731" t="s">
+        <v>12</v>
+      </c>
+      <c r="C731" t="s">
+        <v>204</v>
+      </c>
+      <c r="D731" t="s">
+        <v>3</v>
+      </c>
+      <c r="E731" t="s">
         <v>7</v>
       </c>
-      <c r="B729" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A730" t="s">
-        <v>219</v>
-      </c>
-      <c r="B730" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="731" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A731" s="2" t="s">
-        <v>10</v>
+      <c r="F731" t="s">
+        <v>13</v>
+      </c>
+      <c r="G731" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>11</v>
-      </c>
-      <c r="B732" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
       </c>
       <c r="C732" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D732" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="E732" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F732" t="s">
-        <v>13</v>
-      </c>
-      <c r="G732" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C733" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D733" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="E733" t="s">
         <v>8</v>
       </c>
       <c r="F733" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G733" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>0.106</v>
       </c>
       <c r="C734" t="s">
         <v>222</v>
@@ -12013,165 +12030,165 @@
         <v>16</v>
       </c>
       <c r="G734" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A735" t="s">
-        <v>231</v>
-      </c>
-      <c r="B735">
-        <v>0.5</v>
-      </c>
-      <c r="C735" t="s">
-        <v>222</v>
-      </c>
-      <c r="D735" t="s">
-        <v>4</v>
-      </c>
-      <c r="E735" t="s">
-        <v>8</v>
-      </c>
-      <c r="F735" t="s">
-        <v>16</v>
-      </c>
-      <c r="G735" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A736" t="s">
-        <v>120</v>
-      </c>
-      <c r="B736">
-        <v>0.5</v>
-      </c>
-      <c r="C736" t="s">
-        <v>222</v>
-      </c>
-      <c r="D736" t="s">
-        <v>4</v>
-      </c>
-      <c r="E736" t="s">
-        <v>8</v>
-      </c>
-      <c r="F736" t="s">
-        <v>16</v>
-      </c>
-      <c r="G736" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="738" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A738" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A736" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B738" s="2" t="s">
-        <v>211</v>
+      <c r="B736" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>3</v>
+      </c>
+      <c r="B738" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1</v>
-      </c>
-      <c r="B739" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B740" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>5</v>
-      </c>
-      <c r="B741">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B741" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B742" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A743" t="s">
-        <v>7</v>
-      </c>
-      <c r="B743" t="s">
-        <v>8</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A743" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="B744" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A745" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C744" t="s">
+        <v>204</v>
+      </c>
+      <c r="D744" t="s">
+        <v>3</v>
+      </c>
+      <c r="E744" t="s">
+        <v>7</v>
+      </c>
+      <c r="F744" t="s">
+        <v>13</v>
+      </c>
+      <c r="G744" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>230</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+      <c r="C745" t="s">
+        <v>221</v>
+      </c>
+      <c r="D745" t="s">
+        <v>208</v>
+      </c>
+      <c r="E745" t="s">
+        <v>8</v>
+      </c>
+      <c r="F745" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>11</v>
-      </c>
-      <c r="B746" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="B746">
+        <v>1</v>
       </c>
       <c r="C746" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D746" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E746" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F746" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G746" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C747" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D747" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="E747" t="s">
         <v>8</v>
       </c>
       <c r="F747" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G747" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C748" t="s">
         <v>222</v>
@@ -12186,447 +12203,447 @@
         <v>16</v>
       </c>
       <c r="G748" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A749" t="s">
-        <v>43</v>
-      </c>
-      <c r="B749">
-        <v>1</v>
-      </c>
-      <c r="C749" t="s">
-        <v>222</v>
-      </c>
-      <c r="D749" t="s">
-        <v>4</v>
-      </c>
-      <c r="E749" t="s">
-        <v>8</v>
-      </c>
-      <c r="F749" t="s">
-        <v>16</v>
-      </c>
-      <c r="G749" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="751" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A751" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A750" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B751" s="2" t="s">
-        <v>229</v>
+      <c r="B750" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>1</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B752" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>5</v>
+      </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>6</v>
+      </c>
+      <c r="B754" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>7</v>
+      </c>
+      <c r="B755" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>219</v>
+      </c>
+      <c r="B756" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A757" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>11</v>
+      </c>
+      <c r="B758" t="s">
+        <v>12</v>
+      </c>
+      <c r="C758" t="s">
+        <v>204</v>
+      </c>
+      <c r="D758" t="s">
+        <v>3</v>
+      </c>
+      <c r="E758" t="s">
+        <v>7</v>
+      </c>
+      <c r="F758" t="s">
+        <v>13</v>
+      </c>
+      <c r="G758" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>211</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+      <c r="C759" t="s">
+        <v>221</v>
+      </c>
+      <c r="D759" t="s">
+        <v>208</v>
+      </c>
+      <c r="E759" t="s">
+        <v>8</v>
+      </c>
+      <c r="F759" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>41</v>
+      </c>
+      <c r="B760">
+        <v>1</v>
+      </c>
+      <c r="C760" t="s">
+        <v>222</v>
+      </c>
+      <c r="D760" t="s">
+        <v>4</v>
+      </c>
+      <c r="E760" t="s">
+        <v>8</v>
+      </c>
+      <c r="F760" t="s">
+        <v>16</v>
+      </c>
+      <c r="G760" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>43</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+      <c r="C761" t="s">
+        <v>222</v>
+      </c>
+      <c r="D761" t="s">
+        <v>4</v>
+      </c>
+      <c r="E761" t="s">
+        <v>8</v>
+      </c>
+      <c r="F761" t="s">
+        <v>16</v>
+      </c>
+      <c r="G761" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A763" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>1</v>
+      </c>
+      <c r="B764" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A753" t="s">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
         <v>3</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B765" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A754" t="s">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
         <v>5</v>
       </c>
-      <c r="B754">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A755" t="s">
+      <c r="B766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
         <v>6</v>
       </c>
-      <c r="B755" t="s">
+      <c r="B767" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A756" t="s">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
         <v>7</v>
       </c>
-      <c r="B756" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A757" t="s">
-        <v>219</v>
-      </c>
-      <c r="B757" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="758" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A758" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A759" t="s">
-        <v>11</v>
-      </c>
-      <c r="B759" t="s">
-        <v>12</v>
-      </c>
-      <c r="C759" t="s">
-        <v>204</v>
-      </c>
-      <c r="D759" t="s">
-        <v>3</v>
-      </c>
-      <c r="E759" t="s">
-        <v>7</v>
-      </c>
-      <c r="F759" t="s">
-        <v>131</v>
-      </c>
-      <c r="G759" t="s">
-        <v>13</v>
-      </c>
-      <c r="H759" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A760" t="s">
-        <v>233</v>
-      </c>
-      <c r="B760">
-        <v>1.5</v>
-      </c>
-      <c r="C760" t="s">
-        <v>234</v>
-      </c>
-      <c r="E760" t="s">
-        <v>113</v>
-      </c>
-      <c r="F760" t="s">
-        <v>135</v>
-      </c>
-      <c r="G760" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A761" t="s">
-        <v>235</v>
-      </c>
-      <c r="B761">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C761" t="s">
-        <v>234</v>
-      </c>
-      <c r="E761" t="s">
-        <v>8</v>
-      </c>
-      <c r="F761" t="s">
-        <v>186</v>
-      </c>
-      <c r="G761" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A762" t="s">
-        <v>236</v>
-      </c>
-      <c r="B762">
-        <v>0.1</v>
-      </c>
-      <c r="C762" t="s">
-        <v>234</v>
-      </c>
-      <c r="E762" t="s">
-        <v>8</v>
-      </c>
-      <c r="F762" t="s">
-        <v>186</v>
-      </c>
-      <c r="G762" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A763" t="s">
-        <v>237</v>
-      </c>
-      <c r="B763">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C763" t="s">
-        <v>234</v>
-      </c>
-      <c r="E763" t="s">
-        <v>8</v>
-      </c>
-      <c r="F763" t="s">
-        <v>186</v>
-      </c>
-      <c r="G763" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A764" t="s">
-        <v>229</v>
-      </c>
-      <c r="B764">
-        <v>1</v>
-      </c>
-      <c r="C764" t="s">
-        <v>221</v>
-      </c>
-      <c r="D764" t="s">
-        <v>208</v>
-      </c>
-      <c r="E764" t="s">
-        <v>8</v>
-      </c>
-      <c r="G764" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A765" t="s">
-        <v>122</v>
-      </c>
-      <c r="B765">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C765" t="s">
-        <v>222</v>
-      </c>
-      <c r="D765" t="s">
-        <v>4</v>
-      </c>
-      <c r="E765" t="s">
-        <v>7</v>
-      </c>
-      <c r="G765" t="s">
-        <v>16</v>
-      </c>
-      <c r="H765" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A766" t="s">
-        <v>238</v>
-      </c>
-      <c r="B766">
-        <v>15</v>
-      </c>
-      <c r="C766" t="s">
-        <v>222</v>
-      </c>
-      <c r="D766" t="s">
-        <v>27</v>
-      </c>
-      <c r="E766" t="s">
-        <v>113</v>
-      </c>
-      <c r="G766" t="s">
-        <v>16</v>
-      </c>
-      <c r="H766" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A767" t="s">
-        <v>240</v>
-      </c>
-      <c r="B767">
-        <v>1</v>
-      </c>
-      <c r="C767" t="s">
-        <v>222</v>
-      </c>
-      <c r="D767" t="s">
-        <v>27</v>
-      </c>
-      <c r="E767" t="s">
-        <v>8</v>
-      </c>
-      <c r="G767" t="s">
-        <v>16</v>
-      </c>
-      <c r="H767" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A768" t="s">
-        <v>276</v>
-      </c>
-      <c r="B768">
-        <v>0.46</v>
-      </c>
-      <c r="C768" t="s">
-        <v>222</v>
-      </c>
-      <c r="D768" t="s">
-        <v>4</v>
-      </c>
-      <c r="E768" t="s">
-        <v>8</v>
-      </c>
-      <c r="G768" t="s">
-        <v>16</v>
-      </c>
-      <c r="H768" t="s">
-        <v>279</v>
+      <c r="B768" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>242</v>
-      </c>
-      <c r="B769">
-        <v>0.65</v>
-      </c>
-      <c r="C769" t="s">
-        <v>222</v>
-      </c>
-      <c r="D769" t="s">
-        <v>4</v>
-      </c>
-      <c r="E769" t="s">
-        <v>8</v>
-      </c>
-      <c r="G769" t="s">
-        <v>16</v>
-      </c>
-      <c r="H769" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A770" t="s">
-        <v>157</v>
-      </c>
-      <c r="B770">
-        <v>46</v>
-      </c>
-      <c r="C770" t="s">
-        <v>222</v>
-      </c>
-      <c r="D770" t="s">
-        <v>27</v>
-      </c>
-      <c r="E770" t="s">
-        <v>8</v>
-      </c>
-      <c r="G770" t="s">
-        <v>16</v>
-      </c>
-      <c r="H770" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="772" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A772" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="B769" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A770" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>11</v>
+      </c>
+      <c r="B771" t="s">
+        <v>12</v>
+      </c>
+      <c r="C771" t="s">
+        <v>204</v>
+      </c>
+      <c r="D771" t="s">
+        <v>3</v>
+      </c>
+      <c r="E771" t="s">
+        <v>7</v>
+      </c>
+      <c r="F771" t="s">
+        <v>131</v>
+      </c>
+      <c r="G771" t="s">
+        <v>13</v>
+      </c>
+      <c r="H771" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>233</v>
+      </c>
+      <c r="B772">
+        <v>1.5</v>
+      </c>
+      <c r="C772" t="s">
+        <v>234</v>
+      </c>
+      <c r="E772" t="s">
+        <v>113</v>
+      </c>
+      <c r="F772" t="s">
+        <v>135</v>
+      </c>
+      <c r="G772" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>1</v>
-      </c>
-      <c r="B773" t="s">
-        <v>2</v>
+        <v>235</v>
+      </c>
+      <c r="B773">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C773" t="s">
+        <v>234</v>
+      </c>
+      <c r="E773" t="s">
+        <v>8</v>
+      </c>
+      <c r="F773" t="s">
+        <v>186</v>
+      </c>
+      <c r="G773" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>3</v>
-      </c>
-      <c r="B774" t="s">
-        <v>4</v>
+        <v>236</v>
+      </c>
+      <c r="B774">
+        <v>0.1</v>
+      </c>
+      <c r="C774" t="s">
+        <v>234</v>
+      </c>
+      <c r="E774" t="s">
+        <v>8</v>
+      </c>
+      <c r="F774" t="s">
+        <v>186</v>
+      </c>
+      <c r="G774" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C775" t="s">
+        <v>234</v>
+      </c>
+      <c r="E775" t="s">
+        <v>8</v>
+      </c>
+      <c r="F775" t="s">
+        <v>186</v>
+      </c>
+      <c r="G775" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>6</v>
-      </c>
-      <c r="B776" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+      <c r="C776" t="s">
+        <v>221</v>
+      </c>
+      <c r="D776" t="s">
+        <v>208</v>
+      </c>
+      <c r="E776" t="s">
+        <v>8</v>
+      </c>
+      <c r="G776" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
+        <v>122</v>
+      </c>
+      <c r="B777">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C777" t="s">
+        <v>222</v>
+      </c>
+      <c r="D777" t="s">
+        <v>4</v>
+      </c>
+      <c r="E777" t="s">
         <v>7</v>
       </c>
-      <c r="B777" t="s">
-        <v>8</v>
+      <c r="G777" t="s">
+        <v>16</v>
+      </c>
+      <c r="H777" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>219</v>
-      </c>
-      <c r="B778" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="779" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A779" s="2" t="s">
-        <v>10</v>
+        <v>238</v>
+      </c>
+      <c r="B778">
+        <v>15</v>
+      </c>
+      <c r="C778" t="s">
+        <v>222</v>
+      </c>
+      <c r="D778" t="s">
+        <v>27</v>
+      </c>
+      <c r="E778" t="s">
+        <v>113</v>
+      </c>
+      <c r="G778" t="s">
+        <v>16</v>
+      </c>
+      <c r="H778" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>240</v>
+      </c>
+      <c r="B779">
+        <v>1</v>
+      </c>
+      <c r="C779" t="s">
+        <v>222</v>
+      </c>
+      <c r="D779" t="s">
+        <v>27</v>
+      </c>
+      <c r="E779" t="s">
+        <v>8</v>
+      </c>
+      <c r="G779" t="s">
+        <v>16</v>
+      </c>
+      <c r="H779" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>11</v>
-      </c>
-      <c r="B780" t="s">
-        <v>12</v>
+        <v>276</v>
+      </c>
+      <c r="B780">
+        <v>0.46</v>
       </c>
       <c r="C780" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D780" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E780" t="s">
-        <v>7</v>
-      </c>
-      <c r="F780" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="G780" t="s">
+        <v>16</v>
+      </c>
+      <c r="H780" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="B781">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C781" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D781" t="s">
         <v>4</v>
@@ -12634,163 +12651,163 @@
       <c r="E781" t="s">
         <v>8</v>
       </c>
-      <c r="F781" t="s">
-        <v>14</v>
+      <c r="G781" t="s">
+        <v>16</v>
+      </c>
+      <c r="H781" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
+        <v>157</v>
+      </c>
+      <c r="B782">
+        <v>46</v>
+      </c>
+      <c r="C782" t="s">
+        <v>222</v>
+      </c>
+      <c r="D782" t="s">
+        <v>27</v>
+      </c>
+      <c r="E782" t="s">
+        <v>8</v>
+      </c>
+      <c r="G782" t="s">
+        <v>16</v>
+      </c>
+      <c r="H782" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A784" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>3</v>
+      </c>
+      <c r="B786" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>5</v>
+      </c>
+      <c r="B787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>6</v>
+      </c>
+      <c r="B788" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>7</v>
+      </c>
+      <c r="B789" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>219</v>
+      </c>
+      <c r="B790" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A791" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>11</v>
+      </c>
+      <c r="B792" t="s">
+        <v>12</v>
+      </c>
+      <c r="C792" t="s">
+        <v>204</v>
+      </c>
+      <c r="D792" t="s">
+        <v>3</v>
+      </c>
+      <c r="E792" t="s">
+        <v>7</v>
+      </c>
+      <c r="F792" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>213</v>
+      </c>
+      <c r="B793">
+        <v>1</v>
+      </c>
+      <c r="C793" t="s">
+        <v>206</v>
+      </c>
+      <c r="D793" t="s">
+        <v>4</v>
+      </c>
+      <c r="E793" t="s">
+        <v>8</v>
+      </c>
+      <c r="F793" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
         <v>244</v>
       </c>
-      <c r="B782">
+      <c r="B794">
         <v>0.4</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C794" t="s">
         <v>206</v>
       </c>
-      <c r="D782" t="s">
-        <v>4</v>
-      </c>
-      <c r="E782" t="s">
-        <v>8</v>
-      </c>
-      <c r="F782" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A783" t="s">
+      <c r="D794" t="s">
+        <v>4</v>
+      </c>
+      <c r="E794" t="s">
+        <v>8</v>
+      </c>
+      <c r="F794" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
         <v>245</v>
       </c>
-      <c r="B783">
+      <c r="B795">
         <v>0.22</v>
-      </c>
-      <c r="C783" t="s">
-        <v>206</v>
-      </c>
-      <c r="D783" t="s">
-        <v>4</v>
-      </c>
-      <c r="E783" t="s">
-        <v>8</v>
-      </c>
-      <c r="F783" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A784" t="s">
-        <v>246</v>
-      </c>
-      <c r="B784">
-        <v>0.38</v>
-      </c>
-      <c r="C784" t="s">
-        <v>206</v>
-      </c>
-      <c r="D784" t="s">
-        <v>4</v>
-      </c>
-      <c r="E784" t="s">
-        <v>8</v>
-      </c>
-      <c r="F784" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="786" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A786" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B786" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A787" t="s">
-        <v>1</v>
-      </c>
-      <c r="B787" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A788" t="s">
-        <v>3</v>
-      </c>
-      <c r="B788" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A789" t="s">
-        <v>5</v>
-      </c>
-      <c r="B789">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A790" t="s">
-        <v>6</v>
-      </c>
-      <c r="B790" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A791" t="s">
-        <v>7</v>
-      </c>
-      <c r="B791" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A792" t="s">
-        <v>219</v>
-      </c>
-      <c r="B792" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="793" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A793" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A794" t="s">
-        <v>11</v>
-      </c>
-      <c r="B794" t="s">
-        <v>12</v>
-      </c>
-      <c r="C794" t="s">
-        <v>204</v>
-      </c>
-      <c r="D794" t="s">
-        <v>3</v>
-      </c>
-      <c r="E794" t="s">
-        <v>7</v>
-      </c>
-      <c r="F794" t="s">
-        <v>13</v>
-      </c>
-      <c r="G794" t="s">
-        <v>247</v>
-      </c>
-      <c r="H794" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A795" t="s">
-        <v>244</v>
-      </c>
-      <c r="B795">
-        <v>1</v>
       </c>
       <c r="C795" t="s">
         <v>206</v>
@@ -12802,18 +12819,18 @@
         <v>8</v>
       </c>
       <c r="F795" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B796">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="C796" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="D796" t="s">
         <v>4</v>
@@ -12824,290 +12841,287 @@
       <c r="F796" t="s">
         <v>16</v>
       </c>
-      <c r="H796" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A797" t="s">
-        <v>173</v>
-      </c>
-      <c r="B797">
-        <v>7.7000000000000006E-11</v>
-      </c>
-      <c r="C797" t="s">
-        <v>249</v>
-      </c>
-      <c r="D797" t="s">
-        <v>4</v>
-      </c>
-      <c r="E797" t="s">
-        <v>7</v>
-      </c>
-      <c r="F797" t="s">
-        <v>16</v>
-      </c>
-      <c r="H797" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A798" t="s">
-        <v>35</v>
-      </c>
-      <c r="B798">
-        <v>0.47</v>
-      </c>
-      <c r="C798" t="s">
-        <v>249</v>
-      </c>
-      <c r="D798" t="s">
-        <v>4</v>
-      </c>
-      <c r="E798" t="s">
-        <v>8</v>
-      </c>
-      <c r="F798" t="s">
-        <v>16</v>
-      </c>
-      <c r="H798" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="798" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A798" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>98</v>
-      </c>
-      <c r="B799">
-        <v>0.08</v>
-      </c>
-      <c r="C799" t="s">
-        <v>249</v>
-      </c>
-      <c r="D799" t="s">
-        <v>27</v>
-      </c>
-      <c r="E799" t="s">
-        <v>8</v>
-      </c>
-      <c r="F799" t="s">
-        <v>16</v>
-      </c>
-      <c r="H799" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>250</v>
-      </c>
-      <c r="B800">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C800" t="s">
-        <v>249</v>
-      </c>
-      <c r="D800" t="s">
-        <v>4</v>
-      </c>
-      <c r="E800" t="s">
-        <v>8</v>
-      </c>
-      <c r="F800" t="s">
-        <v>16</v>
-      </c>
-      <c r="H800" t="s">
-        <v>251</v>
+        <v>3</v>
+      </c>
+      <c r="B800" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="B801">
-        <v>3.4999999999999998E-10</v>
-      </c>
-      <c r="C801" t="s">
-        <v>249</v>
-      </c>
-      <c r="D801" t="s">
-        <v>4</v>
-      </c>
-      <c r="E801" t="s">
-        <v>7</v>
-      </c>
-      <c r="F801" t="s">
-        <v>16</v>
-      </c>
-      <c r="H801" t="s">
-        <v>253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>85</v>
-      </c>
-      <c r="B802">
-        <v>7.8E-2</v>
-      </c>
-      <c r="C802" t="s">
-        <v>249</v>
-      </c>
-      <c r="D802" t="s">
-        <v>4</v>
-      </c>
-      <c r="E802" t="s">
-        <v>8</v>
-      </c>
-      <c r="F802" t="s">
-        <v>16</v>
-      </c>
-      <c r="G802" t="s">
-        <v>254</v>
-      </c>
-      <c r="H802" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="B802" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>120</v>
-      </c>
-      <c r="B803">
-        <v>0.32</v>
-      </c>
-      <c r="C803" t="s">
-        <v>249</v>
-      </c>
-      <c r="D803" t="s">
-        <v>4</v>
-      </c>
-      <c r="E803" t="s">
-        <v>8</v>
-      </c>
-      <c r="F803" t="s">
-        <v>16</v>
-      </c>
-      <c r="H803" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="B803" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>39</v>
-      </c>
-      <c r="B804">
-        <v>0.5</v>
-      </c>
-      <c r="C804" t="s">
-        <v>249</v>
-      </c>
-      <c r="D804" t="s">
-        <v>4</v>
-      </c>
-      <c r="E804" t="s">
-        <v>8</v>
-      </c>
-      <c r="F804" t="s">
-        <v>16</v>
-      </c>
-      <c r="H804" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="806" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A806" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B806" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
+      </c>
+      <c r="B804" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A805" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>11</v>
+      </c>
+      <c r="B806" t="s">
+        <v>12</v>
+      </c>
+      <c r="C806" t="s">
+        <v>204</v>
+      </c>
+      <c r="D806" t="s">
+        <v>3</v>
+      </c>
+      <c r="E806" t="s">
+        <v>7</v>
+      </c>
+      <c r="F806" t="s">
+        <v>13</v>
+      </c>
+      <c r="G806" t="s">
+        <v>247</v>
+      </c>
+      <c r="H806" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>1</v>
-      </c>
-      <c r="B807" t="s">
-        <v>2</v>
+        <v>244</v>
+      </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
+      <c r="C807" t="s">
+        <v>206</v>
+      </c>
+      <c r="D807" t="s">
+        <v>4</v>
+      </c>
+      <c r="E807" t="s">
+        <v>8</v>
+      </c>
+      <c r="F807" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>3</v>
-      </c>
-      <c r="B808" t="s">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
+      <c r="C808" t="s">
+        <v>249</v>
+      </c>
+      <c r="D808" t="s">
+        <v>4</v>
+      </c>
+      <c r="E808" t="s">
+        <v>8</v>
+      </c>
+      <c r="F808" t="s">
+        <v>16</v>
+      </c>
+      <c r="H808" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>7.7000000000000006E-11</v>
+      </c>
+      <c r="C809" t="s">
+        <v>249</v>
+      </c>
+      <c r="D809" t="s">
+        <v>4</v>
+      </c>
+      <c r="E809" t="s">
+        <v>7</v>
+      </c>
+      <c r="F809" t="s">
+        <v>16</v>
+      </c>
+      <c r="H809" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>6</v>
-      </c>
-      <c r="B810" t="s">
-        <v>245</v>
+        <v>35</v>
+      </c>
+      <c r="B810">
+        <v>0.47</v>
+      </c>
+      <c r="C810" t="s">
+        <v>249</v>
+      </c>
+      <c r="D810" t="s">
+        <v>4</v>
+      </c>
+      <c r="E810" t="s">
+        <v>8</v>
+      </c>
+      <c r="F810" t="s">
+        <v>16</v>
+      </c>
+      <c r="H810" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>7</v>
-      </c>
-      <c r="B811" t="s">
-        <v>8</v>
+        <v>98</v>
+      </c>
+      <c r="B811">
+        <v>0.08</v>
+      </c>
+      <c r="C811" t="s">
+        <v>249</v>
+      </c>
+      <c r="D811" t="s">
+        <v>27</v>
+      </c>
+      <c r="E811" t="s">
+        <v>8</v>
+      </c>
+      <c r="F811" t="s">
+        <v>16</v>
+      </c>
+      <c r="H811" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>219</v>
-      </c>
-      <c r="B812" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="813" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A813" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="B812">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C812" t="s">
+        <v>249</v>
+      </c>
+      <c r="D812" t="s">
+        <v>4</v>
+      </c>
+      <c r="E812" t="s">
+        <v>8</v>
+      </c>
+      <c r="F812" t="s">
+        <v>16</v>
+      </c>
+      <c r="H812" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>252</v>
+      </c>
+      <c r="B813">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="C813" t="s">
+        <v>249</v>
+      </c>
+      <c r="D813" t="s">
+        <v>4</v>
+      </c>
+      <c r="E813" t="s">
+        <v>7</v>
+      </c>
+      <c r="F813" t="s">
+        <v>16</v>
+      </c>
+      <c r="H813" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>11</v>
-      </c>
-      <c r="B814" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="B814">
+        <v>7.8E-2</v>
       </c>
       <c r="C814" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D814" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E814" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F814" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G814" t="s">
-        <v>6</v>
+        <v>254</v>
+      </c>
+      <c r="H814" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="B815">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="C815" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="D815" t="s">
         <v>4</v>
@@ -13116,15 +13130,18 @@
         <v>8</v>
       </c>
       <c r="F815" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H815" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="B816">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C816" t="s">
         <v>249</v>
@@ -13138,163 +13155,163 @@
       <c r="F816" t="s">
         <v>16</v>
       </c>
-      <c r="G816" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A817" t="s">
-        <v>173</v>
-      </c>
-      <c r="B817">
-        <v>1.5E-10</v>
-      </c>
-      <c r="C817" t="s">
-        <v>249</v>
-      </c>
-      <c r="D817" t="s">
-        <v>4</v>
-      </c>
-      <c r="E817" t="s">
-        <v>7</v>
-      </c>
-      <c r="F817" t="s">
-        <v>16</v>
-      </c>
-      <c r="G817" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A818" t="s">
-        <v>39</v>
-      </c>
-      <c r="B818">
-        <v>1</v>
-      </c>
-      <c r="C818" t="s">
-        <v>249</v>
-      </c>
-      <c r="D818" t="s">
-        <v>4</v>
-      </c>
-      <c r="E818" t="s">
-        <v>8</v>
-      </c>
-      <c r="F818" t="s">
-        <v>16</v>
-      </c>
-      <c r="G818" t="s">
+      <c r="H816" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A820" s="2" t="s">
+    <row r="818" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A818" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B820" s="2" t="s">
-        <v>246</v>
+      <c r="B818" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>3</v>
+      </c>
+      <c r="B820" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>1</v>
-      </c>
-      <c r="B821" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B822" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>5</v>
-      </c>
-      <c r="B823">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B823" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B824" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A825" t="s">
-        <v>7</v>
-      </c>
-      <c r="B825" t="s">
-        <v>8</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A825" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="B826" t="s">
+        <v>12</v>
+      </c>
+      <c r="C826" t="s">
+        <v>204</v>
+      </c>
+      <c r="D826" t="s">
+        <v>3</v>
+      </c>
+      <c r="E826" t="s">
+        <v>7</v>
+      </c>
+      <c r="F826" t="s">
+        <v>13</v>
+      </c>
+      <c r="G826" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>245</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+      <c r="C827" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="827" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A827" s="2" t="s">
-        <v>10</v>
+      <c r="D827" t="s">
+        <v>4</v>
+      </c>
+      <c r="E827" t="s">
+        <v>8</v>
+      </c>
+      <c r="F827" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>11</v>
-      </c>
-      <c r="B828" t="s">
-        <v>12</v>
+        <v>248</v>
+      </c>
+      <c r="B828">
+        <v>1</v>
       </c>
       <c r="C828" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D828" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E828" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F828" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G828" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="B829">
-        <v>1</v>
+        <v>1.5E-10</v>
       </c>
       <c r="C829" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="D829" t="s">
         <v>4</v>
       </c>
       <c r="E829" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F829" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G829" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B830">
         <v>1</v>
@@ -13312,426 +13329,553 @@
         <v>16</v>
       </c>
       <c r="G830" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A832" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>3</v>
+      </c>
+      <c r="B834" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>5</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>6</v>
+      </c>
+      <c r="B836" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>7</v>
+      </c>
+      <c r="B837" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>219</v>
+      </c>
+      <c r="B838" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A839" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>11</v>
+      </c>
+      <c r="B840" t="s">
+        <v>12</v>
+      </c>
+      <c r="C840" t="s">
+        <v>204</v>
+      </c>
+      <c r="D840" t="s">
+        <v>3</v>
+      </c>
+      <c r="E840" t="s">
+        <v>7</v>
+      </c>
+      <c r="F840" t="s">
+        <v>13</v>
+      </c>
+      <c r="G840" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>246</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+      <c r="C841" t="s">
+        <v>206</v>
+      </c>
+      <c r="D841" t="s">
+        <v>4</v>
+      </c>
+      <c r="E841" t="s">
+        <v>8</v>
+      </c>
+      <c r="F841" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>41</v>
+      </c>
+      <c r="B842">
+        <v>1</v>
+      </c>
+      <c r="C842" t="s">
+        <v>249</v>
+      </c>
+      <c r="D842" t="s">
+        <v>4</v>
+      </c>
+      <c r="E842" t="s">
+        <v>8</v>
+      </c>
+      <c r="F842" t="s">
+        <v>16</v>
+      </c>
+      <c r="G842" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A831" t="s">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
         <v>50</v>
       </c>
-      <c r="B831">
+      <c r="B843">
         <v>4.6000000000000001E-10</v>
       </c>
-      <c r="C831" t="s">
+      <c r="C843" t="s">
         <v>249</v>
       </c>
-      <c r="D831" t="s">
-        <v>4</v>
-      </c>
-      <c r="E831" t="s">
+      <c r="D843" t="s">
+        <v>4</v>
+      </c>
+      <c r="E843" t="s">
         <v>7</v>
       </c>
-      <c r="F831" t="s">
-        <v>16</v>
-      </c>
-      <c r="G831" t="s">
+      <c r="F843" t="s">
+        <v>16</v>
+      </c>
+      <c r="G843" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A832" t="s">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
         <v>43</v>
       </c>
-      <c r="B832">
-        <v>1</v>
-      </c>
-      <c r="C832" t="s">
+      <c r="B844">
+        <v>1</v>
+      </c>
+      <c r="C844" t="s">
         <v>249</v>
       </c>
-      <c r="D832" t="s">
-        <v>4</v>
-      </c>
-      <c r="E832" t="s">
-        <v>8</v>
-      </c>
-      <c r="F832" t="s">
-        <v>16</v>
-      </c>
-      <c r="G832" t="s">
+      <c r="D844" t="s">
+        <v>4</v>
+      </c>
+      <c r="E844" t="s">
+        <v>8</v>
+      </c>
+      <c r="F844" t="s">
+        <v>16</v>
+      </c>
+      <c r="G844" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A834" s="2" t="s">
+    <row r="846" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A846" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B834" s="2" t="s">
+      <c r="B846" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A835" t="s">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
         <v>3</v>
       </c>
-      <c r="B835" t="s">
+      <c r="B847" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A836" t="s">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
         <v>5</v>
       </c>
-      <c r="B836">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A837" t="s">
-        <v>6</v>
-      </c>
-      <c r="B837" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A838" t="s">
-        <v>13</v>
-      </c>
-      <c r="B838" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A839" t="s">
-        <v>7</v>
-      </c>
-      <c r="B839" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="840" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A840" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A841" t="s">
-        <v>11</v>
-      </c>
-      <c r="B841" t="s">
-        <v>12</v>
-      </c>
-      <c r="C841" t="s">
-        <v>204</v>
-      </c>
-      <c r="D841" t="s">
-        <v>3</v>
-      </c>
-      <c r="E841" t="s">
-        <v>7</v>
-      </c>
-      <c r="F841" t="s">
-        <v>131</v>
-      </c>
-      <c r="G841" t="s">
-        <v>13</v>
-      </c>
-      <c r="H841" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A842" t="s">
-        <v>233</v>
-      </c>
-      <c r="B842">
-        <v>15.73</v>
-      </c>
-      <c r="C842" t="s">
-        <v>234</v>
-      </c>
-      <c r="E842" t="s">
-        <v>113</v>
-      </c>
-      <c r="F842" t="s">
-        <v>135</v>
-      </c>
-      <c r="G842" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A843" t="s">
-        <v>256</v>
-      </c>
-      <c r="B843">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C843" t="s">
-        <v>234</v>
-      </c>
-      <c r="E843" t="s">
-        <v>8</v>
-      </c>
-      <c r="F843" t="s">
-        <v>135</v>
-      </c>
-      <c r="G843" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A844" t="s">
-        <v>153</v>
-      </c>
-      <c r="B844">
-        <v>0.25</v>
-      </c>
-      <c r="C844" t="s">
-        <v>234</v>
-      </c>
-      <c r="E844" t="s">
-        <v>138</v>
-      </c>
-      <c r="F844" t="s">
-        <v>154</v>
-      </c>
-      <c r="G844" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A845" t="s">
-        <v>223</v>
-      </c>
-      <c r="B845">
-        <v>1</v>
-      </c>
-      <c r="C845" t="s">
-        <v>224</v>
-      </c>
-      <c r="D845" t="s">
-        <v>96</v>
-      </c>
-      <c r="E845" t="s">
-        <v>8</v>
-      </c>
-      <c r="G845" t="s">
-        <v>14</v>
-      </c>
-      <c r="H845" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A846" t="s">
-        <v>257</v>
-      </c>
-      <c r="B846">
-        <v>0.752</v>
-      </c>
-      <c r="C846" t="s">
-        <v>222</v>
-      </c>
-      <c r="D846" t="s">
-        <v>96</v>
-      </c>
-      <c r="E846" t="s">
-        <v>8</v>
-      </c>
-      <c r="G846" t="s">
-        <v>16</v>
-      </c>
-      <c r="H846" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A847" t="s">
-        <v>259</v>
-      </c>
-      <c r="B847">
-        <v>0.01</v>
-      </c>
-      <c r="C847" t="s">
-        <v>222</v>
-      </c>
-      <c r="D847" t="s">
-        <v>4</v>
-      </c>
-      <c r="E847" t="s">
-        <v>8</v>
-      </c>
-      <c r="G847" t="s">
-        <v>16</v>
-      </c>
-      <c r="H847" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A848" t="s">
-        <v>261</v>
-      </c>
       <c r="B848">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="C848" t="s">
-        <v>222</v>
-      </c>
-      <c r="D848" t="s">
-        <v>4</v>
-      </c>
-      <c r="E848" t="s">
-        <v>8</v>
-      </c>
-      <c r="G848" t="s">
-        <v>16</v>
-      </c>
-      <c r="H848" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>263</v>
-      </c>
-      <c r="B849">
-        <v>5.0400000000000002E-3</v>
-      </c>
-      <c r="C849" t="s">
-        <v>222</v>
-      </c>
-      <c r="D849" t="s">
-        <v>4</v>
-      </c>
-      <c r="E849" t="s">
-        <v>8</v>
-      </c>
-      <c r="G849" t="s">
-        <v>16</v>
-      </c>
-      <c r="H849" t="s">
-        <v>264</v>
+        <v>6</v>
+      </c>
+      <c r="B849" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>265</v>
-      </c>
-      <c r="B850">
-        <v>0.251</v>
-      </c>
-      <c r="C850" t="s">
-        <v>222</v>
-      </c>
-      <c r="D850" t="s">
-        <v>4</v>
-      </c>
-      <c r="E850" t="s">
-        <v>8</v>
-      </c>
-      <c r="G850" t="s">
-        <v>16</v>
-      </c>
-      <c r="H850" t="s">
-        <v>266</v>
+        <v>13</v>
+      </c>
+      <c r="B850" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>157</v>
-      </c>
-      <c r="B851">
-        <v>1.8</v>
-      </c>
-      <c r="C851" t="s">
-        <v>222</v>
-      </c>
-      <c r="D851" t="s">
-        <v>27</v>
-      </c>
-      <c r="E851" t="s">
-        <v>8</v>
-      </c>
-      <c r="G851" t="s">
-        <v>16</v>
-      </c>
-      <c r="H851" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A852" t="s">
-        <v>45</v>
-      </c>
-      <c r="B852">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C852" t="s">
-        <v>222</v>
-      </c>
-      <c r="D852" t="s">
-        <v>96</v>
-      </c>
-      <c r="E852" t="s">
-        <v>46</v>
-      </c>
-      <c r="G852" t="s">
-        <v>16</v>
-      </c>
-      <c r="H852" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="B851" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A852" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>267</v>
-      </c>
-      <c r="B853">
-        <v>13.75</v>
+        <v>11</v>
+      </c>
+      <c r="B853" t="s">
+        <v>12</v>
       </c>
       <c r="C853" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D853" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E853" t="s">
-        <v>113</v>
+        <v>7</v>
+      </c>
+      <c r="F853" t="s">
+        <v>131</v>
       </c>
       <c r="G853" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H853" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
+        <v>233</v>
+      </c>
+      <c r="B854">
+        <v>15.73</v>
+      </c>
+      <c r="C854" t="s">
+        <v>234</v>
+      </c>
+      <c r="E854" t="s">
+        <v>113</v>
+      </c>
+      <c r="F854" t="s">
+        <v>135</v>
+      </c>
+      <c r="G854" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>256</v>
+      </c>
+      <c r="B855">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C855" t="s">
+        <v>234</v>
+      </c>
+      <c r="E855" t="s">
+        <v>8</v>
+      </c>
+      <c r="F855" t="s">
+        <v>135</v>
+      </c>
+      <c r="G855" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>153</v>
+      </c>
+      <c r="B856">
+        <v>0.25</v>
+      </c>
+      <c r="C856" t="s">
+        <v>234</v>
+      </c>
+      <c r="E856" t="s">
+        <v>138</v>
+      </c>
+      <c r="F856" t="s">
+        <v>154</v>
+      </c>
+      <c r="G856" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>223</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+      <c r="C857" t="s">
+        <v>224</v>
+      </c>
+      <c r="D857" t="s">
+        <v>96</v>
+      </c>
+      <c r="E857" t="s">
+        <v>8</v>
+      </c>
+      <c r="G857" t="s">
+        <v>14</v>
+      </c>
+      <c r="H857" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>257</v>
+      </c>
+      <c r="B858">
+        <v>0.752</v>
+      </c>
+      <c r="C858" t="s">
+        <v>222</v>
+      </c>
+      <c r="D858" t="s">
+        <v>96</v>
+      </c>
+      <c r="E858" t="s">
+        <v>8</v>
+      </c>
+      <c r="G858" t="s">
+        <v>16</v>
+      </c>
+      <c r="H858" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>259</v>
+      </c>
+      <c r="B859">
+        <v>0.01</v>
+      </c>
+      <c r="C859" t="s">
+        <v>222</v>
+      </c>
+      <c r="D859" t="s">
+        <v>4</v>
+      </c>
+      <c r="E859" t="s">
+        <v>8</v>
+      </c>
+      <c r="G859" t="s">
+        <v>16</v>
+      </c>
+      <c r="H859" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>261</v>
+      </c>
+      <c r="B860">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="C860" t="s">
+        <v>222</v>
+      </c>
+      <c r="D860" t="s">
+        <v>4</v>
+      </c>
+      <c r="E860" t="s">
+        <v>8</v>
+      </c>
+      <c r="G860" t="s">
+        <v>16</v>
+      </c>
+      <c r="H860" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>263</v>
+      </c>
+      <c r="B861">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="C861" t="s">
+        <v>222</v>
+      </c>
+      <c r="D861" t="s">
+        <v>4</v>
+      </c>
+      <c r="E861" t="s">
+        <v>8</v>
+      </c>
+      <c r="G861" t="s">
+        <v>16</v>
+      </c>
+      <c r="H861" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>265</v>
+      </c>
+      <c r="B862">
+        <v>0.251</v>
+      </c>
+      <c r="C862" t="s">
+        <v>222</v>
+      </c>
+      <c r="D862" t="s">
+        <v>4</v>
+      </c>
+      <c r="E862" t="s">
+        <v>8</v>
+      </c>
+      <c r="G862" t="s">
+        <v>16</v>
+      </c>
+      <c r="H862" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>157</v>
+      </c>
+      <c r="B863">
+        <v>1.8</v>
+      </c>
+      <c r="C863" t="s">
+        <v>222</v>
+      </c>
+      <c r="D863" t="s">
+        <v>27</v>
+      </c>
+      <c r="E863" t="s">
+        <v>8</v>
+      </c>
+      <c r="G863" t="s">
+        <v>16</v>
+      </c>
+      <c r="H863" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>45</v>
+      </c>
+      <c r="B864">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C864" t="s">
+        <v>222</v>
+      </c>
+      <c r="D864" t="s">
+        <v>96</v>
+      </c>
+      <c r="E864" t="s">
+        <v>46</v>
+      </c>
+      <c r="G864" t="s">
+        <v>16</v>
+      </c>
+      <c r="H864" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>267</v>
+      </c>
+      <c r="B865">
+        <v>13.75</v>
+      </c>
+      <c r="C865" t="s">
+        <v>222</v>
+      </c>
+      <c r="D865" t="s">
+        <v>96</v>
+      </c>
+      <c r="E865" t="s">
+        <v>113</v>
+      </c>
+      <c r="G865" t="s">
+        <v>16</v>
+      </c>
+      <c r="H865" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
         <v>269</v>
       </c>
-      <c r="B854">
+      <c r="B866">
         <v>-1.8</v>
       </c>
-      <c r="C854" t="s">
+      <c r="C866" t="s">
         <v>222</v>
       </c>
-      <c r="D854" t="s">
+      <c r="D866" t="s">
         <v>27</v>
       </c>
-      <c r="E854" t="s">
+      <c r="E866" t="s">
         <v>138</v>
       </c>
-      <c r="G854" t="s">
-        <v>16</v>
-      </c>
-      <c r="H854" t="s">
+      <c r="G866" t="s">
+        <v>16</v>
+      </c>
+      <c r="H866" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O854" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O866" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
